--- a/branches/Procedure-resource-dev-FIG-49/ValueSet-vs-specimen-type.xlsx
+++ b/branches/Procedure-resource-dev-FIG-49/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:18:21+00:00</t>
+    <t>2023-02-16T07:24:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
